--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 3 (24, 30, 57, 49, 53)/Ableson 1 (7, 32, 40, 15, 34)/NCDE_32nodes_Uniform0.05Virtual_Nelson(24, 30, 57, 49, 53)_Ableson(7, 32, 40, 15, 34)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 3 (24, 30, 57, 49, 53)/Ableson 1 (7, 32, 40, 15, 34)/NCDE_32nodes_Uniform0.05Virtual_Nelson(24, 30, 57, 49, 53)_Ableson(7, 32, 40, 15, 34)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1.284152001892838E-07</v>
+        <v>1.273760039130352E-07</v>
       </c>
       <c r="E2">
-        <v>1.284152001892838E-07</v>
+        <v>1.273760039130352E-07</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.001552505012565615</v>
+        <v>0.001536591649188994</v>
       </c>
       <c r="E3">
-        <v>0.001552505012565615</v>
+        <v>0.001536591649188994</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>6.272532485756708E-05</v>
+        <v>6.264361322180282E-05</v>
       </c>
       <c r="E4">
-        <v>6.272532485756708E-05</v>
+        <v>6.264361322180282E-05</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.310899175367591E-05</v>
+        <v>1.321622470031253E-05</v>
       </c>
       <c r="E5">
-        <v>1.310899175367591E-05</v>
+        <v>1.321622470031253E-05</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.1870266161178462</v>
+        <v>0.1870592056908366</v>
       </c>
       <c r="E6">
-        <v>0.1870266161178462</v>
+        <v>0.1870592056908366</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9982936182131921</v>
+        <v>0.8356824989492203</v>
       </c>
       <c r="E7">
-        <v>0.001706381786807931</v>
+        <v>0.1643175010507797</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,13 +537,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9984588230255886</v>
+        <v>7.312781674127107E-07</v>
       </c>
       <c r="E8">
-        <v>0.001541176974411362</v>
+        <v>0.9999992687218325</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -551,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.9984117933009182</v>
+        <v>5.341450409448754E-16</v>
       </c>
       <c r="E9">
-        <v>0.001588206699081773</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9985265307925997</v>
+        <v>1.469325468107369E-06</v>
       </c>
       <c r="E10">
-        <v>0.001473469207400324</v>
+        <v>0.9999985306745319</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -579,19 +579,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.9986120587087211</v>
+        <v>0.2578318332462012</v>
       </c>
       <c r="E11">
-        <v>0.001387941291278949</v>
+        <v>0.7421681667537988</v>
       </c>
       <c r="F11">
-        <v>0.02163895778357983</v>
+        <v>6.44687032699585</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>1.518680132585403E-10</v>
+        <v>1.484727933813741E-10</v>
       </c>
       <c r="E12">
-        <v>1.518680132585403E-10</v>
+        <v>1.484727933813741E-10</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>2.045439302178998E-07</v>
+        <v>1.991111457275314E-07</v>
       </c>
       <c r="E13">
-        <v>2.045439302178998E-07</v>
+        <v>1.991111457275314E-07</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1.60840237066513E-06</v>
+        <v>1.603137247098961E-06</v>
       </c>
       <c r="E14">
-        <v>1.60840237066513E-06</v>
+        <v>1.603137247098961E-06</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>7.412480936365801E-08</v>
+        <v>7.403026299060435E-08</v>
       </c>
       <c r="E15">
-        <v>7.412480936365801E-08</v>
+        <v>7.403026299060435E-08</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.05178087597960378</v>
+        <v>0.05183561844560355</v>
       </c>
       <c r="E16">
-        <v>0.05178087597960378</v>
+        <v>0.05183561844560355</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9999949376878244</v>
+        <v>0.8757795608878421</v>
       </c>
       <c r="E17">
-        <v>5.062312175563299E-06</v>
+        <v>0.1242204391121579</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,13 +686,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.9999956027408289</v>
+        <v>1.64497084213964E-11</v>
       </c>
       <c r="E18">
-        <v>4.397259171118328E-06</v>
+        <v>0.9999999999835503</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.999994586041454</v>
+        <v>1.827945652468018E-24</v>
       </c>
       <c r="E19">
-        <v>5.413958546029995E-06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.9999950515972167</v>
+        <v>1.656877932017172E-08</v>
       </c>
       <c r="E20">
-        <v>4.948402783311323E-06</v>
+        <v>0.9999999834312207</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -728,19 +728,19 @@
         <v>15</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.9999955790544699</v>
+        <v>0.01512657650101828</v>
       </c>
       <c r="E21">
-        <v>4.420945530103637E-06</v>
+        <v>0.9848734234989818</v>
       </c>
       <c r="F21">
-        <v>0.005319679155945778</v>
+        <v>10.17824745178223</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
